--- a/src/main/resources/smartportfolio - funds.xlsx
+++ b/src/main/resources/smartportfolio - funds.xlsx
@@ -275,16 +275,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -312,14 +304,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -623,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,39 +619,40 @@
     <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="62.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="40.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" t="s">
         <v>76</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -691,7 +679,10 @@
         <v>9</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2386.8676826999999</v>
+      </c>
+      <c r="I2" s="1">
+        <v>43463</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -719,15 +710,18 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="I3" s="1">
+        <v>43139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>33</v>
       </c>
       <c r="D4" t="s">
@@ -745,6 +739,9 @@
       <c r="H4">
         <v>0</v>
       </c>
+      <c r="I4" s="1">
+        <v>43108</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -769,7 +766,10 @@
         <v>9</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>4688.4665816099996</v>
+      </c>
+      <c r="I5" s="1">
+        <v>43463</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -797,6 +797,9 @@
       <c r="H6">
         <v>0</v>
       </c>
+      <c r="I6" s="1">
+        <v>43104</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -823,6 +826,9 @@
       <c r="H7">
         <v>0</v>
       </c>
+      <c r="I7" s="1">
+        <v>43116</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -849,6 +855,9 @@
       <c r="H8">
         <v>0</v>
       </c>
+      <c r="I8" s="1">
+        <v>43133</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -875,6 +884,9 @@
       <c r="H9">
         <v>0</v>
       </c>
+      <c r="I9" s="1">
+        <v>43116</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -901,6 +913,9 @@
       <c r="H10">
         <v>0</v>
       </c>
+      <c r="I10" s="1">
+        <v>43115</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -927,6 +942,9 @@
       <c r="H11">
         <v>0</v>
       </c>
+      <c r="I11" s="1">
+        <v>43115</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -951,9 +969,9 @@
         <v>75</v>
       </c>
       <c r="H12">
-        <v>4168.1752500000002</v>
-      </c>
-      <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
         <v>43131</v>
       </c>
     </row>
@@ -982,8 +1000,8 @@
       <c r="H13">
         <v>80829.547550000003</v>
       </c>
-      <c r="I13" s="3">
-        <v>43131</v>
+      <c r="I13" s="1">
+        <v>43463</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1011,18 +1029,18 @@
       <c r="H14">
         <v>27836.14846</v>
       </c>
-      <c r="I14" s="3">
-        <v>43100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="I14" s="1">
+        <v>43463</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>79</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
         <v>78</v>
       </c>
       <c r="D15" t="s">
@@ -1040,8 +1058,8 @@
       <c r="H15">
         <v>1224.0539900000001</v>
       </c>
-      <c r="I15" s="3">
-        <v>43100</v>
+      <c r="I15" s="1">
+        <v>43463</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1069,6 +1087,9 @@
       <c r="H16">
         <v>0</v>
       </c>
+      <c r="I16" s="1">
+        <v>43116</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -1095,8 +1116,8 @@
       <c r="H17">
         <v>1469.32581</v>
       </c>
-      <c r="I17" s="3">
-        <v>43100</v>
+      <c r="I17" s="1">
+        <v>43098</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1124,8 +1145,8 @@
       <c r="H18">
         <v>4122.7268999999997</v>
       </c>
-      <c r="I18" s="3">
-        <v>43100</v>
+      <c r="I18" s="1">
+        <v>43098</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1153,8 +1174,8 @@
       <c r="H19">
         <v>4433.3459700000003</v>
       </c>
-      <c r="I19" s="3">
-        <v>43100</v>
+      <c r="I19" s="1">
+        <v>43098</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1173,13 +1194,18 @@
       <c r="E20" t="s">
         <v>8</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" t="s">
         <v>84</v>
       </c>
       <c r="G20" t="s">
         <v>9</v>
       </c>
-      <c r="I20" s="3"/>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
+        <v>43104</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/src/main/resources/smartportfolio - funds.xlsx
+++ b/src/main/resources/smartportfolio - funds.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="90">
   <si>
     <t>tipo</t>
   </si>
@@ -269,6 +269,21 @@
   </si>
   <si>
     <t>06.332.955/0001-22</t>
+  </si>
+  <si>
+    <t>portfolio</t>
+  </si>
+  <si>
+    <t>Renda Fixa</t>
+  </si>
+  <si>
+    <t>Renda Variável</t>
+  </si>
+  <si>
+    <t>Multimercado</t>
+  </si>
+  <si>
+    <t>Cambial</t>
   </si>
 </sst>
 </file>
@@ -608,10 +623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -627,7 +642,7 @@
     <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -655,8 +670,11 @@
       <c r="I1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -684,8 +702,11 @@
       <c r="I2" s="1">
         <v>43463</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -713,8 +734,11 @@
       <c r="I3" s="1">
         <v>43139</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -742,8 +766,11 @@
       <c r="I4" s="1">
         <v>43108</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -771,8 +798,11 @@
       <c r="I5" s="1">
         <v>43463</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -800,8 +830,11 @@
       <c r="I6" s="1">
         <v>43104</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -829,8 +862,11 @@
       <c r="I7" s="1">
         <v>43116</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -858,8 +894,11 @@
       <c r="I8" s="1">
         <v>43133</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -887,8 +926,11 @@
       <c r="I9" s="1">
         <v>43116</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -916,8 +958,11 @@
       <c r="I10" s="1">
         <v>43115</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -945,8 +990,11 @@
       <c r="I11" s="1">
         <v>43115</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -974,8 +1022,11 @@
       <c r="I12" s="1">
         <v>43131</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1003,8 +1054,11 @@
       <c r="I13" s="1">
         <v>43463</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -1032,8 +1086,11 @@
       <c r="I14" s="1">
         <v>43463</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -1061,8 +1118,11 @@
       <c r="I15" s="1">
         <v>43463</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -1090,8 +1150,11 @@
       <c r="I16" s="1">
         <v>43116</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -1119,8 +1182,11 @@
       <c r="I17" s="1">
         <v>43098</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -1148,8 +1214,11 @@
       <c r="I18" s="1">
         <v>43098</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -1177,8 +1246,11 @@
       <c r="I19" s="1">
         <v>43098</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -1205,6 +1277,9 @@
       </c>
       <c r="I20" s="1">
         <v>43104</v>
+      </c>
+      <c r="J20" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
